--- a/relaxsation_method_numeric_execrsise/electric_field.xlsx
+++ b/relaxsation_method_numeric_execrsise/electric_field.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B502"/>
+  <dimension ref="A1:B402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.853999999999999e-09</v>
+        <v>1.762038310027133e-09</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.185838815113809e-09</v>
+        <v>1.76265416062622e-09</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.445098891910246e-09</v>
+        <v>1.764159241774818e-09</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.362860820081263e-09</v>
+        <v>1.765442408760787e-09</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.670517822002023e-09</v>
+        <v>1.766442437327292e-09</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.206211195274084e-09</v>
+        <v>1.767213148055748e-09</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.879879390562356e-09</v>
+        <v>1.767810069500528e-09</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.640985578404458e-09</v>
+        <v>1.76827637719131e-09</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.460117164566361e-09</v>
+        <v>1.768644012808197e-09</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.319383270811984e-09</v>
+        <v>1.768936500026367e-09</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.207418039912003e-09</v>
+        <v>1.769171281159995e-09</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.116708442075249e-09</v>
+        <v>1.769361407415361e-09</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.042111561073395e-09</v>
+        <v>1.769516730273358e-09</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.799974217351751e-10</v>
+        <v>1.769644744090039e-09</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.277354005219187e-10</v>
+        <v>1.769751189060973e-09</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.833740833419945e-10</v>
+        <v>1.769840488421567e-09</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.454367607780919e-10</v>
+        <v>1.769916069335765e-09</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.12785390911611e-10</v>
+        <v>1.769980600888472e-09</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.845295144651916e-10</v>
+        <v>1.770036172132338e-09</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.599620263684891e-10</v>
+        <v>1.770084426236625e-09</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.385149057998704e-10</v>
+        <v>1.770126662151604e-09</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.197261248212224e-10</v>
+        <v>1.77016391202871e-09</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.032166446840556e-10</v>
+        <v>1.770197000422e-09</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.886720424965819e-10</v>
+        <v>1.770226589722943e-09</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.758299522868383e-10</v>
+        <v>1.770253215145902e-09</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.644691619523333e-10</v>
+        <v>1.770277311752618e-09</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.544025227053533e-10</v>
+        <v>1.770299235392069e-09</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.454700722159721e-10</v>
+        <v>1.770319278976615e-09</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.375349607563891e-10</v>
+        <v>1.770337685174249e-09</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.304788604864588e-10</v>
+        <v>1.770354656339614e-09</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.241996276196452e-10</v>
+        <v>1.770370362312469e-09</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.186080723718485e-10</v>
+        <v>1.770384946564706e-09</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.13626653621262e-10</v>
+        <v>1.770398531065222e-09</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.091870953967318e-10</v>
+        <v>1.770411220146385e-09</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.052297103143102e-10</v>
+        <v>1.770423103590813e-09</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.017015661267457e-10</v>
+        <v>1.770434259107204e-09</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.985561973309127e-10</v>
+        <v>1.770444754325905e-09</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.957521451023728e-10</v>
+        <v>1.77045464841546e-09</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.932529089539716e-10</v>
+        <v>1.770463993398947e-09</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.91025751564899e-10</v>
+        <v>1.770472835231531e-09</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.890417968166606e-10</v>
+        <v>1.770481214687303e-09</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.872750309339187e-10</v>
+        <v>1.770489168093055e-09</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.857024863981217e-10</v>
+        <v>1.77049672793873e-09</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.843033947210274e-10</v>
+        <v>1.770503923387951e-09</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.830594165987675e-10</v>
+        <v>1.770510780707251e-09</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.81953916230964e-10</v>
+        <v>1.770517323628801e-09</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.809722115807188e-10</v>
+        <v>1.770523573658503e-09</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.801009492018148e-10</v>
+        <v>1.770529550338907e-09</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.793283574347159e-10</v>
+        <v>1.770535271474663e-09</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.786437063958932e-10</v>
+        <v>1.770540753326716e-09</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.780375530204442e-10</v>
+        <v>1.770546010780253e-09</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.775012744988767e-10</v>
+        <v>1.770551057490611e-09</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.770272982697794e-10</v>
+        <v>1.770555906010496e-09</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.766086995476936e-10</v>
+        <v>1.770560567901315e-09</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.762394122908423e-10</v>
+        <v>1.770565053830935e-09</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.759138830344021e-10</v>
+        <v>1.770569373659884e-09</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.756272609008293e-10</v>
+        <v>1.770573536517487e-09</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.753751010383543e-10</v>
+        <v>1.770577550869409e-09</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.751535331615324e-10</v>
+        <v>1.770581424577673e-09</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.749590086845941e-10</v>
+        <v>1.770585164954202e-09</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.747884482506453e-10</v>
+        <v>1.77058877880864e-09</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.746390272616777e-10</v>
+        <v>1.770592272491208e-09</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.745083034967702e-10</v>
+        <v>1.770595651931177e-09</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.743940362478126e-10</v>
+        <v>1.7705989226715e-09</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.742942955265454e-10</v>
+        <v>1.770602089900024e-09</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.742073104607589e-10</v>
+        <v>1.770605158477713e-09</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.741315618106673e-10</v>
+        <v>1.770608132964164e-09</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.740656556893715e-10</v>
+        <v>1.770611017640778e-09</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.740084011987953e-10</v>
+        <v>1.770613816531787e-09</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.739587059235127e-10</v>
+        <v>1.77061653342339e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.739156404920697e-10</v>
+        <v>1.770619171881198e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.738783526603414e-10</v>
+        <v>1.770621735266156e-09</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.738461205341174e-10</v>
+        <v>1.770624226749083e-09</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.738182824083427e-10</v>
+        <v>1.770626649324014e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.7379428027332e-10</v>
+        <v>1.770629005820382e-09</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.737736029085456e-10</v>
+        <v>1.770631298914243e-09</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.737558211549471e-10</v>
+        <v>1.770633531138562e-09</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.737405420746052e-10</v>
+        <v>1.770635704892698e-09</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.737274373180933e-10</v>
+        <v>1.770637822451121e-09</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.737162064520555e-10</v>
+        <v>1.770639885971472e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.737065995937896e-10</v>
+        <v>1.770641897501988e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.736983882756741e-10</v>
+        <v>1.770643858988385e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.736913833656016e-10</v>
+        <v>1.770645772280196e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.736854120796115e-10</v>
+        <v>1.77064763913667e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.736803320615099e-10</v>
+        <v>1.770649461232233e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.736760133722038e-10</v>
+        <v>1.770651240161554e-09</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.736723494680842e-10</v>
+        <v>1.770652977444239e-09</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.736692431876821e-10</v>
+        <v>1.770654674529233e-09</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.736666152478801e-10</v>
+        <v>1.770656332798858e-09</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.736643934165582e-10</v>
+        <v>1.770657953572637e-09</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.736625190390522e-10</v>
+        <v>1.770659538110819e-09</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.736609387306661e-10</v>
+        <v>1.770661087617667e-09</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.736596093531589e-10</v>
+        <v>1.770662603244557e-09</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.736584916850115e-10</v>
+        <v>1.770664086092856e-09</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.736575541883026e-10</v>
+        <v>1.770665537216592e-09</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.736567682194537e-10</v>
+        <v>1.770666957625008e-09</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.736561108597694e-10</v>
+        <v>1.770668348284888e-09</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.736555613169838e-10</v>
+        <v>1.770669710122799e-09</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.736551030368174e-10</v>
+        <v>1.770671044027143e-09</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.736547210180333e-10</v>
+        <v>1.770672350850125e-09</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.736544033763238e-10</v>
+        <v>1.770673631409569e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.73654139354876e-10</v>
+        <v>1.770674886490633e-09</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.736539204743445e-10</v>
+        <v>1.770676116847445e-09</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.736537390689866e-10</v>
+        <v>1.770677323204606e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.736535891262532e-10</v>
+        <v>1.77067850625863e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.736534652171129e-10</v>
+        <v>1.770679666679304e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.736533631046681e-10</v>
+        <v>1.770680805110938e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.736532789679504e-10</v>
+        <v>1.770681922173585e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.736532098399682e-10</v>
+        <v>1.77068301846417e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.736531530483646e-10</v>
+        <v>1.770684094557557e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.736531065284744e-10</v>
+        <v>1.77068515100756e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.736530684230303e-10</v>
+        <v>1.770686188347899e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.736530373043369e-10</v>
+        <v>1.770687207093108e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.736530118897668e-10</v>
+        <v>1.770688207739392e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.736529911983252e-10</v>
+        <v>1.770689190765424e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.736529743498555e-10</v>
+        <v>1.770690156633133e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.736529606745755e-10</v>
+        <v>1.770691105788415e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.736529495723564e-10</v>
+        <v>1.770692038661837e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.73652940588817e-10</v>
+        <v>1.770692955669271e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.736529333173716e-10</v>
+        <v>1.770693857212542e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.736529274517377e-10</v>
+        <v>1.770694743679992e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.73652922718219e-10</v>
+        <v>1.770695615447063e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.736529189116888e-10</v>
+        <v>1.770696472876814e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.736529158490912e-10</v>
+        <v>1.770697316320434e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.736529133939196e-10</v>
+        <v>1.770698146117727e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.736529114245366e-10</v>
+        <v>1.770698962597556e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.736529098506867e-10</v>
+        <v>1.770699766078293e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.736529085920585e-10</v>
+        <v>1.770700556868243e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.736529075893688e-10</v>
+        <v>1.770701335266012e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.736529067899382e-10</v>
+        <v>1.770702101560911e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.736529061550712e-10</v>
+        <v>1.7707028560333e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.736529056504359e-10</v>
+        <v>1.770703598954949e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.736529052509482e-10</v>
+        <v>1.77070433058934e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.736529049343738e-10</v>
+        <v>1.770705051192005e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.736529046845563e-10</v>
+        <v>1.770705761010801e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.736529044871913e-10</v>
+        <v>1.770706460286225e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.736529043319385e-10</v>
+        <v>1.77070714925165e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.736529042096594e-10</v>
+        <v>1.770707828133624e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.736529041137773e-10</v>
+        <v>1.770708497152094e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.736529040384921e-10</v>
+        <v>1.770709156520644e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.736529039796473e-10</v>
+        <v>1.770709806446735e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.736529039335842e-10</v>
+        <v>1.770710447131927e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.736529038976953e-10</v>
+        <v>1.770711078772059e-09</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.736529038696878e-10</v>
+        <v>1.770711701557492e-09</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.736529038479401e-10</v>
+        <v>1.770712315673266e-09</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.736529038310169e-10</v>
+        <v>1.7707129212993e-09</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.736529038179196e-10</v>
+        <v>1.770713518610569e-09</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.736529038077613e-10</v>
+        <v>1.770714107777259e-09</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.736529037999229e-10</v>
+        <v>1.770714688964948e-09</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.736529037938619e-10</v>
+        <v>1.770715262334748e-09</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.736529037892005e-10</v>
+        <v>1.770715828043464e-09</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.736529037856066e-10</v>
+        <v>1.770716386243728e-09</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.736529037828524e-10</v>
+        <v>1.770716937084142e-09</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.73652903780736e-10</v>
+        <v>1.770717480709417e-09</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.73652903779117e-10</v>
+        <v>1.770718017260479e-09</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.736529037778784e-10</v>
+        <v>1.770718546874616e-09</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.736529037769337e-10</v>
+        <v>1.770719069685577e-09</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.736529037762133e-10</v>
+        <v>1.770719585823701e-09</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.736529037756657e-10</v>
+        <v>1.770720095416004e-09</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.736529037752499e-10</v>
+        <v>1.77072059858631e-09</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.736529037749343e-10</v>
+        <v>1.77072109545533e-09</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.736529037746935e-10</v>
+        <v>1.770721586140767e-09</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.736529037745156e-10</v>
+        <v>1.770722070757412e-09</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.73652903774378e-10</v>
+        <v>1.77072254941722e-09</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.736529037742748e-10</v>
+        <v>1.770723022229427e-09</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.73652903774198e-10</v>
+        <v>1.770723489300591e-09</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.7365290377414e-10</v>
+        <v>1.770723950734714e-09</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.736529037740959e-10</v>
+        <v>1.770724406633289e-09</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.736529037740645e-10</v>
+        <v>1.770724857095388e-09</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.736529037740397e-10</v>
+        <v>1.77072530221773e-09</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.736529037740232e-10</v>
+        <v>1.770725742094755e-09</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.736529037740083e-10</v>
+        <v>1.770726176818683e-09</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.736529037739995e-10</v>
+        <v>1.770726606479589e-09</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.736529037739926e-10</v>
+        <v>1.770727031165456e-09</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.736529037739858e-10</v>
+        <v>1.770727450962243e-09</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.736529037739818e-10</v>
+        <v>1.770727865953937e-09</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.736529037739788e-10</v>
+        <v>1.770728276222608e-09</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.736529037739788e-10</v>
+        <v>1.770728681848472e-09</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.736529037739759e-10</v>
+        <v>1.770729082909932e-09</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.73652903773974e-10</v>
+        <v>1.770729479483641e-09</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.73652903773974e-10</v>
+        <v>1.770729871644544e-09</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.736529037739729e-10</v>
+        <v>1.770730259465916e-09</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.736529037739729e-10</v>
+        <v>1.770730643019429e-09</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.736529037739719e-10</v>
+        <v>1.770731022375177e-09</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.736529037739729e-10</v>
+        <v>1.770731397601736e-09</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.736529037739729e-10</v>
+        <v>1.770731768766185e-09</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.736529037739729e-10</v>
+        <v>1.770732135934164e-09</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.736529037739729e-10</v>
+        <v>1.770732499169902e-09</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.736529037739719e-10</v>
+        <v>1.770732858536261e-09</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.736529037739719e-10</v>
+        <v>1.77073321409477e-09</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.736529037739719e-10</v>
+        <v>1.770733565905656e-09</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.736529037739719e-10</v>
+        <v>1.770733914027887e-09</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.736529037739719e-10</v>
+        <v>1.770734258519198e-09</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770734599436117e-09</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770734936834018e-09</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770735270767129e-09</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770735601288568e-09</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770735928450373e-09</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770736252303535e-09</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.736529037739719e-10</v>
+        <v>1.770736572898008e-09</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770736890282751e-09</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770737204505745e-09</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770737515614015e-09</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770737823653673e-09</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770738128669907e-09</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770738430707028e-09</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770738729808491e-09</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770739026016897e-09</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770739319374038e-09</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770739609920901e-09</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770739897697689e-09</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770740182743842e-09</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770740465098059e-09</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770740744798305e-09</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770741021881836e-09</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>5.736529037739719e-10</v>
+        <v>1.770741296385215e-09</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770741568344326e-09</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770741837794388e-09</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770742104769979e-09</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770742369305038e-09</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770742631432888e-09</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5.736529037739711e-10</v>
+        <v>1.770742891186252e-09</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5.736529037739719e-10</v>
+        <v>1.770743148597253e-09</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>5.736529037739729e-10</v>
+        <v>1.770743403697446e-09</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>5.73652903773974e-10</v>
+        <v>1.770743656517818e-09</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>5.736529037739749e-10</v>
+        <v>1.770743907088805e-09</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5.736529037739788e-10</v>
+        <v>1.770744155440303e-09</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>5.736529037739788e-10</v>
+        <v>1.770744401601675e-09</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5.736529037739828e-10</v>
+        <v>1.770744645601783e-09</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>5.736529037739858e-10</v>
+        <v>1.770744887468964e-09</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>5.736529037739926e-10</v>
+        <v>1.770745127231081e-09</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>5.736529037739985e-10</v>
+        <v>1.7707453649155e-09</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>5.736529037740083e-10</v>
+        <v>1.770745600549119e-09</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>5.736529037740211e-10</v>
+        <v>1.770745834158376e-09</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>5.736529037740389e-10</v>
+        <v>1.770746065769253e-09</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>5.736529037740614e-10</v>
+        <v>1.770746295407291e-09</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>5.736529037740959e-10</v>
+        <v>1.770746523097596e-09</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>5.736529037741371e-10</v>
+        <v>1.770746748864856e-09</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>5.736529037741962e-10</v>
+        <v>1.770746972733328e-09</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>5.736529037742678e-10</v>
+        <v>1.770747194726881e-09</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>5.736529037743721e-10</v>
+        <v>1.770747414868972e-09</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>5.736529037745009e-10</v>
+        <v>1.770747633182677e-09</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>5.736529037746797e-10</v>
+        <v>1.770747849690682e-09</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>5.736529037748999e-10</v>
+        <v>1.770748064415308e-09</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>5.736529037752087e-10</v>
+        <v>1.7707482773785e-09</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>5.736529037755891e-10</v>
+        <v>1.770748488601851e-09</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>5.736529037761149e-10</v>
+        <v>1.770748698106602e-09</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>5.736529037767657e-10</v>
+        <v>1.770748905913648e-09</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>5.736529037776622e-10</v>
+        <v>1.770749112043549e-09</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>5.736529037787709e-10</v>
+        <v>1.770749316516528e-09</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5.736529037802896e-10</v>
+        <v>1.770749519352488e-09</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>5.736529037821612e-10</v>
+        <v>1.770749720571018e-09</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>5.73652903784719e-10</v>
+        <v>1.770749920191391e-09</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>5.736529037878637e-10</v>
+        <v>1.770750118232576e-09</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>5.736529037921396e-10</v>
+        <v>1.77075031471324e-09</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>5.736529037973858e-10</v>
+        <v>1.770750509651764e-09</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>5.736529038044881e-10</v>
+        <v>1.770750703066234e-09</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5.736529038131856e-10</v>
+        <v>1.770750894974461e-09</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5.736529038249126e-10</v>
+        <v>1.770751085393973e-09</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>5.736529038392426e-10</v>
+        <v>1.770751274342033e-09</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5.736529038584837e-10</v>
+        <v>1.770751461835633e-09</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5.736529038819477e-10</v>
+        <v>1.770751647891508e-09</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5.736529039133159e-10</v>
+        <v>1.770751832526134e-09</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5.736529039514884e-10</v>
+        <v>1.770752015755735e-09</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>5.736529040023111e-10</v>
+        <v>1.770752197596295e-09</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>5.736529040640252e-10</v>
+        <v>1.770752378063553e-09</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5.736529041458554e-10</v>
+        <v>1.770752557173011e-09</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5.736529042450097e-10</v>
+        <v>1.770752734939936e-09</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5.736529043759432e-10</v>
+        <v>1.770752911379376e-09</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>5.736529045342648e-10</v>
+        <v>1.770753086506141e-09</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>5.736529047424702e-10</v>
+        <v>1.770753260334835e-09</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>5.736529049936884e-10</v>
+        <v>1.770753432879836e-09</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>5.736529053227204e-10</v>
+        <v>1.770753604155318e-09</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>5.736529057188805e-10</v>
+        <v>1.770753774175238e-09</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>5.736529062356431e-10</v>
+        <v>1.770753942953355e-09</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>5.736529068565192e-10</v>
+        <v>1.770754110503236e-09</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>5.736529076631306e-10</v>
+        <v>1.770754276838234e-09</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>5.736529086302014e-10</v>
+        <v>1.770754441971521e-09</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>5.736529098815102e-10</v>
+        <v>1.770754605916074e-09</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>5.736529113785669e-10</v>
+        <v>1.770754768684682e-09</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>5.736529133078725e-10</v>
+        <v>1.770754930289964e-09</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>5.736529156111955e-10</v>
+        <v>1.770755090744343e-09</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>5.736529185677212e-10</v>
+        <v>1.770755250060072e-09</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>5.736529220899478e-10</v>
+        <v>1.770755408249234e-09</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>5.736529265930897e-10</v>
+        <v>1.770755565323737e-09</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>5.736529319465457e-10</v>
+        <v>1.770755721295327e-09</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>5.736529387638472e-10</v>
+        <v>1.770755876175574e-09</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>5.736529468513701e-10</v>
+        <v>1.770756029975897e-09</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>5.736529571098376e-10</v>
+        <v>1.770756182707559e-09</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>5.736529692541123e-10</v>
+        <v>1.770756334381658e-09</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5.736529845980114e-10</v>
+        <v>1.770756485009141e-09</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5.736530027244683e-10</v>
+        <v>1.770756634600809e-09</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5.73653025537518e-10</v>
+        <v>1.77075678316731e-09</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5.736530524312288e-10</v>
+        <v>1.77075693071915e-09</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>5.736530861472856e-10</v>
+        <v>1.770757077266687e-09</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5.736531258113058e-10</v>
+        <v>1.770757222820144e-09</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5.736531753458323e-10</v>
+        <v>1.770757367389604e-09</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5.736532334976414e-10</v>
+        <v>1.770757510985015e-09</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>5.736533058428417e-10</v>
+        <v>1.770757653616188e-09</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>5.736533905974148e-10</v>
+        <v>1.770757795292805e-09</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>5.736534956375316e-10</v>
+        <v>1.770757936024418e-09</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>5.736536184408497e-10</v>
+        <v>1.770758075820455e-09</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>5.736537700615436e-10</v>
+        <v>1.770758214690215e-09</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>5.73653946957731e-10</v>
+        <v>1.770758352642878e-09</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>5.73654164545434e-10</v>
+        <v>1.7707584896875e-09</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>5.736544178852424e-10</v>
+        <v>1.770758625833027e-09</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>5.736547283400821e-10</v>
+        <v>1.770758761088277e-09</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>5.736550890690473e-10</v>
+        <v>1.77075889546196e-09</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>5.736555294892957e-10</v>
+        <v>1.770759028962678e-09</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>5.736560401920224e-10</v>
+        <v>1.770759161598923e-09</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>5.736566614305588e-10</v>
+        <v>1.770759293379074e-09</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>5.736573803544393e-10</v>
+        <v>1.770759424311414e-09</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>5.736582516998362e-10</v>
+        <v>1.770759554404122e-09</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>5.736592580388633e-10</v>
+        <v>1.770759683665282e-09</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>5.736604733371195e-10</v>
+        <v>1.770759812102888e-09</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>5.736618741260294e-10</v>
+        <v>1.770759939724847e-09</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>5.736635597356068e-10</v>
+        <v>1.770760066538979e-09</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>5.736654987885656e-10</v>
+        <v>1.770760192553047e-09</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>5.736678238534114e-10</v>
+        <v>1.77076031777475e-09</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>5.736704932820097e-10</v>
+        <v>1.770760442211738e-09</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>5.73673682917146e-10</v>
+        <v>1.770760565871651e-09</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>5.736773378823994e-10</v>
+        <v>1.770760688762124e-09</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>5.7368168999731e-10</v>
+        <v>1.770760810890844e-09</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>5.736866674928657e-10</v>
+        <v>1.770760932265579e-09</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>5.736925741326295e-10</v>
+        <v>1.770761052894264e-09</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>5.736993167650003e-10</v>
+        <v>1.770761172785071e-09</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>5.737072910321956e-10</v>
+        <v>1.77076129194657e-09</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>5.737163769634861e-10</v>
+        <v>1.770761410387845e-09</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>5.737270868002882e-10</v>
+        <v>1.770761528118781e-09</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>5.737392672551669e-10</v>
+        <v>1.770761645150316e-09</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>5.737535776215731e-10</v>
+        <v>1.770761761494937e-09</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>5.737698236410163e-10</v>
+        <v>1.770761877167184e-09</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>5.737888489306142e-10</v>
+        <v>1.770761992184534e-09</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>5.738104093904442e-10</v>
+        <v>1.770762106568372e-09</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>5.738355782914722e-10</v>
+        <v>1.770762220345618e-09</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>5.738640516078689e-10</v>
+        <v>1.770762333550532e-09</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>5.738971870611121e-10</v>
+        <v>1.770762446227758e-09</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>5.739346094978252e-10</v>
+        <v>1.770762558435689e-09</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>5.739780269472638e-10</v>
+        <v>1.770762670252098e-09</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>5.740269810472102e-10</v>
+        <v>1.77076278178046e-09</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>5.740836088566199e-10</v>
+        <v>1.770762893160406e-09</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>5.7414735628273e-10</v>
+        <v>1.770763004579497e-09</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>5.742208830478608e-10</v>
+        <v>1.7707631162927e-09</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>5.743035270891246e-10</v>
+        <v>1.770763228644366e-09</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>5.74398581675972e-10</v>
+        <v>1.770763342104416e-09</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>5.745052659327248e-10</v>
+        <v>1.770763457309422e-09</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>5.746276375115818e-10</v>
+        <v>1.770763575129813e-09</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>5.747647889314516e-10</v>
+        <v>1.770763696746697e-09</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>5.74921696188501e-10</v>
+        <v>1.77076382377671e-09</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>5.750973228428143e-10</v>
+        <v>1.77076395841554e-09</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>5.752977441312599e-10</v>
+        <v>1.770764103670018e-09</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>5.755218011362873e-10</v>
+        <v>1.770764263626215e-09</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>5.757768808619496e-10</v>
+        <v>1.77076444388086e-09</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>5.760617220053404e-10</v>
+        <v>1.770764652042162e-09</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>5.763852734472103e-10</v>
+        <v>1.7707648985318e-09</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>5.767462118887881e-10</v>
+        <v>1.770765197520423e-09</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>5.771553435592112e-10</v>
+        <v>1.770765568418658e-09</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>5.7761135320557e-10</v>
+        <v>1.770766037624413e-09</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>5.781272557046332e-10</v>
+        <v>1.770766641295223e-09</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>5.787018566795022e-10</v>
+        <v>1.770767428611484e-09</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>5.793508012484261e-10</v>
+        <v>1.770768466931938e-09</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>5.800731901103558e-10</v>
+        <v>1.770769847887633e-09</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>5.808878110136007e-10</v>
+        <v>1.770771696970296e-09</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>5.817943218732667e-10</v>
+        <v>1.770774184912093e-09</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>5.828152859653961e-10</v>
+        <v>1.770777545521062e-09</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>5.839513070426842e-10</v>
+        <v>1.770782096931382e-09</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>5.852295213124254e-10</v>
+        <v>1.770788274785254e-09</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>5.866520503571976e-10</v>
+        <v>1.770796671917604e-09</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>5.882516317484296e-10</v>
+        <v>1.770808100104594e-09</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>5.900327459904397e-10</v>
+        <v>1.770823664187903e-09</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>5.920350942726795e-10</v>
+        <v>1.770844877026614e-09</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>5.942667585184362e-10</v>
+        <v>1.770873798002302e-09</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>5.967762622234709e-10</v>
+        <v>1.770913247147322e-09</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>5.995771424439964e-10</v>
+        <v>1.770967064144039e-09</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>6.027293642213654e-10</v>
+        <v>1.771040507616378e-09</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>6.062547277944519e-10</v>
+        <v>1.771140740134826e-09</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>6.10228461644923e-10</v>
+        <v>1.771277574166459e-09</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>6.146849726390765e-10</v>
+        <v>1.771464382671651e-09</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>6.197205436073372e-10</v>
+        <v>1.771719497272474e-09</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>6.253890908740484e-10</v>
+        <v>1.772067926032142e-09</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>6.318170954166223e-10</v>
+        <v>1.772543989612077e-09</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>6.390893345607557e-10</v>
+        <v>1.773194589652971e-09</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>6.473776065368664e-10</v>
+        <v>1.774084231937702e-09</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>6.56817027606644e-10</v>
+        <v>1.775301341290764e-09</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>6.676510702960131e-10</v>
+        <v>1.776968015626523e-09</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>6.801004210121537e-10</v>
+        <v>1.779252562758696e-09</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>6.945291349230851e-10</v>
+        <v>1.782389082946307e-09</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>7.113115187795152e-10</v>
+        <v>1.786703554738476e-09</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>7.310301086225112e-10</v>
+        <v>1.792655480650012e-09</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>7.543555806610016e-10</v>
+        <v>1.800896605081469e-09</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>7.823042637078241e-10</v>
+        <v>1.812368426868001e-09</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>8.161756922844774e-10</v>
+        <v>1.828452085626866e-09</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>8.579531735190434e-10</v>
+        <v>1.85123459128872e-09</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>9.104488610535512e-10</v>
+        <v>1.883972137923158e-09</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>9.781413123399739e-10</v>
+        <v>1.932007909461306e-09</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>1.068100607993001e-09</v>
+        <v>2.00466403883222e-09</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>1.192417776128559e-09</v>
+        <v>2.119660721979721e-09</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1.372116877938818e-09</v>
+        <v>2.314397469754503e-09</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>1.644702825734023e-09</v>
+        <v>2.67849404828705e-09</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>2.07180005463517e-09</v>
+        <v>3.457882148794373e-09</v>
       </c>
     </row>
     <row r="402">
@@ -3643,807 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>6.487961571243745e-10</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>1.579504530904493e-10</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>-3.526458597008275e-11</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>-1.199118779442632e-10</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>-1.590856401746399e-10</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>-1.767154972793849e-10</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>-1.829975830486982e-10</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>-1.828875871339037e-10</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>-1.789521285739289e-10</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>-1.727281674886442e-10</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>-1.650945297308601e-10</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>-1.566818169146238e-10</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>-1.478455662644157e-10</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>-1.388951995110096e-10</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>-1.299789702790234e-10</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>-1.21266234394848e-10</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>-1.128082689561208e-10</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>-1.04704212315452e-10</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>-9.695528872362576e-11</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>-8.962232101772435e-11</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>-8.267966363907675e-11</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>-7.616625956825691e-11</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>-7.004228328995544e-11</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>-6.433392835522732e-11</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>-5.899457686110655e-11</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>-5.404294811977393e-11</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>-4.94300665808418e-11</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>-4.517026493127819e-11</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>-4.121489297813979e-11</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>-3.757569257961911e-11</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>-3.420594249085442e-11</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>-3.111581464976918e-11</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>-2.826144046217149e-11</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>-2.565197907163205e-11</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>-2.324690455108978e-11</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>-2.105464761915993e-11</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>-1.90382364076999e-11</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>-1.720550267545327e-11</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>-1.552306046483505e-11</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>-1.399818934042418e-11</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>-1.260100565798466e-11</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>-1.13382442926792e-11</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>-1.018336687280015e-11</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>-9.142557115275279e-12</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>-8.192419410543085e-12</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>-7.338579776366943e-12</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>-6.560556379386835e-12</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>-5.86341777918048e-12</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>-5.229353636718361e-12</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>-4.662884670123759e-12</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>-4.148625800097446e-12</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>-3.690569016629301e-12</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>-3.275511051708009e-12</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>-2.906942563674281e-12</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>-2.573606335928093e-12</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>-2.278525543660389e-12</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>-2.012164498898573e-12</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>-1.777117186113563e-12</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>-1.565358665418444e-12</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>-1.379094542325471e-12</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>-1.211615257489719e-12</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>-1.064779670105407e-12</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>-9.33014633786856e-13</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>-8.178733089455643e-13</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>-7.147568154618232e-13</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>-6.249519815239905e-13</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>-5.446888216805373e-13</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>-4.75024719323782e-13</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>-4.12889562996772e-13</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>-3.591451693183331e-13</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>-3.113079092464357e-13</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>-2.700746001483663e-13</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>-2.334493875252283e-13</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>-2.019912327483718e-13</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>-1.741069300910638e-13</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>-1.502413362680602e-13</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>-1.291311528039867e-13</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>-1.111276314211628e-13</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>-9.523578155602345e-14</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>-8.173071216598668e-14</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>-6.983404085840955e-14</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>-5.975941789941698e-14</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>-5.090206116720992e-14</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>-4.342634855739754e-14</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>-3.686563648839658e-14</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>-3.134500140200911e-14</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>-2.650695888017324e-14</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="n">
-        <v>-2.24453087963756e-14</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="n">
-        <v>-1.888826000212064e-14</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" t="n">
-        <v>-1.59046597311027e-14</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B492" t="n">
-        <v>-1.328959113493513e-14</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B493" t="n">
-        <v>-1.109178412266101e-14</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B494" t="n">
-        <v>-9.158262538614114e-15</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B495" t="n">
-        <v>-7.521159022490713e-15</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B496" t="n">
-        <v>-6.067732335602947e-15</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B497" t="n">
-        <v>-4.815852236441751e-15</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>-3.683977338749509e-15</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>-2.676945169903021e-15</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>-1.737587747619065e-15</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>-8.578679755553796e-16</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>0</v>
+        <v>1.293668263360681e-09</v>
       </c>
     </row>
   </sheetData>
